--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
@@ -543,10 +543,10 @@
         <v>1.805913</v>
       </c>
       <c r="I2">
-        <v>0.6090241081970299</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="J2">
-        <v>0.6090241081970298</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.383699</v>
+        <v>1.619868333333333</v>
       </c>
       <c r="N2">
-        <v>4.151097</v>
+        <v>4.859605</v>
       </c>
       <c r="O2">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="P2">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="Q2">
-        <v>0.8329466707290001</v>
+        <v>0.9751137604850001</v>
       </c>
       <c r="R2">
-        <v>7.496520036561001</v>
+        <v>8.776023844365001</v>
       </c>
       <c r="S2">
-        <v>0.04921509770111539</v>
+        <v>0.01045133879451187</v>
       </c>
       <c r="T2">
-        <v>0.04921509770111537</v>
+        <v>0.01045133879451187</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>1.805913</v>
       </c>
       <c r="I3">
-        <v>0.6090241081970299</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="J3">
-        <v>0.6090241081970298</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>7.386282</v>
       </c>
       <c r="O3">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="P3">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="Q3">
         <v>1.482109187274</v>
@@ -635,10 +635,10 @@
         <v>13.338982685466</v>
       </c>
       <c r="S3">
-        <v>0.08757121076139389</v>
+        <v>0.01588535191930305</v>
       </c>
       <c r="T3">
-        <v>0.08757121076139389</v>
+        <v>0.01588535191930305</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>1.805913</v>
       </c>
       <c r="I4">
-        <v>0.6090241081970299</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="J4">
-        <v>0.6090241081970298</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.941088000000001</v>
+        <v>7.682722666666667</v>
       </c>
       <c r="N4">
-        <v>26.823264</v>
+        <v>23.048168</v>
       </c>
       <c r="O4">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="P4">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="Q4">
-        <v>5.382275684448</v>
+        <v>4.624776246376</v>
       </c>
       <c r="R4">
-        <v>48.44048116003201</v>
+        <v>41.622986217384</v>
       </c>
       <c r="S4">
-        <v>0.3180146256333714</v>
+        <v>0.0495686814794262</v>
       </c>
       <c r="T4">
-        <v>0.3180146256333713</v>
+        <v>0.0495686814794262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>1.805913</v>
       </c>
       <c r="I5">
-        <v>0.6090241081970299</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="J5">
-        <v>0.6090241081970298</v>
+        <v>0.09594307528308157</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.336036333333333</v>
+        <v>3.105673</v>
       </c>
       <c r="N5">
-        <v>13.008109</v>
+        <v>9.317019</v>
       </c>
       <c r="O5">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="P5">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="Q5">
-        <v>2.610168127613</v>
+        <v>1.869525081483</v>
       </c>
       <c r="R5">
-        <v>23.491513148517</v>
+        <v>16.825725733347</v>
       </c>
       <c r="S5">
-        <v>0.1542231741011492</v>
+        <v>0.02003770308984046</v>
       </c>
       <c r="T5">
-        <v>0.1542231741011492</v>
+        <v>0.02003770308984046</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.386448</v>
+        <v>5.672280666666667</v>
       </c>
       <c r="H6">
-        <v>1.159344</v>
+        <v>17.016842</v>
       </c>
       <c r="I6">
-        <v>0.3909758918029702</v>
+        <v>0.9040569247169185</v>
       </c>
       <c r="J6">
-        <v>0.3909758918029702</v>
+        <v>0.9040569247169185</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.383699</v>
+        <v>1.619868333333333</v>
       </c>
       <c r="N6">
-        <v>4.151097</v>
+        <v>4.859605</v>
       </c>
       <c r="O6">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="P6">
-        <v>0.08080976933214185</v>
+        <v>0.1089327058120143</v>
       </c>
       <c r="Q6">
-        <v>0.5347277111519999</v>
+        <v>9.188347829712223</v>
       </c>
       <c r="R6">
-        <v>4.812549400368</v>
+        <v>82.69513046741001</v>
       </c>
       <c r="S6">
-        <v>0.03159467163102646</v>
+        <v>0.09848136701750244</v>
       </c>
       <c r="T6">
-        <v>0.03159467163102646</v>
+        <v>0.09848136701750243</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.386448</v>
+        <v>5.672280666666667</v>
       </c>
       <c r="H7">
-        <v>1.159344</v>
+        <v>17.016842</v>
       </c>
       <c r="I7">
-        <v>0.3909758918029702</v>
+        <v>0.9040569247169185</v>
       </c>
       <c r="J7">
-        <v>0.3909758918029702</v>
+        <v>0.9040569247169185</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>7.386282</v>
       </c>
       <c r="O7">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="P7">
-        <v>0.1437893994387872</v>
+        <v>0.1655705935257241</v>
       </c>
       <c r="Q7">
-        <v>0.9514713021119999</v>
+        <v>13.965688195716</v>
       </c>
       <c r="R7">
-        <v>8.563241719007999</v>
+        <v>125.691193761444</v>
       </c>
       <c r="S7">
-        <v>0.05621818867739332</v>
+        <v>0.1496852416064211</v>
       </c>
       <c r="T7">
-        <v>0.05621818867739334</v>
+        <v>0.1496852416064211</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.386448</v>
+        <v>5.672280666666667</v>
       </c>
       <c r="H8">
-        <v>1.159344</v>
+        <v>17.016842</v>
       </c>
       <c r="I8">
-        <v>0.3909758918029702</v>
+        <v>0.9040569247169185</v>
       </c>
       <c r="J8">
-        <v>0.3909758918029702</v>
+        <v>0.9040569247169185</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.941088000000001</v>
+        <v>7.682722666666667</v>
       </c>
       <c r="N8">
-        <v>26.823264</v>
+        <v>23.048168</v>
       </c>
       <c r="O8">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="P8">
-        <v>0.5221708325715213</v>
+        <v>0.5166467859527435</v>
       </c>
       <c r="Q8">
-        <v>3.455265575424</v>
+        <v>43.57855924949511</v>
       </c>
       <c r="R8">
-        <v>31.097390178816</v>
+        <v>392.207033245456</v>
       </c>
       <c r="S8">
-        <v>0.20415620693815</v>
+        <v>0.4670781044733173</v>
       </c>
       <c r="T8">
-        <v>0.20415620693815</v>
+        <v>0.4670781044733173</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.386448</v>
+        <v>5.672280666666667</v>
       </c>
       <c r="H9">
-        <v>1.159344</v>
+        <v>17.016842</v>
       </c>
       <c r="I9">
-        <v>0.3909758918029702</v>
+        <v>0.9040569247169185</v>
       </c>
       <c r="J9">
-        <v>0.3909758918029702</v>
+        <v>0.9040569247169185</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.336036333333333</v>
+        <v>3.105673</v>
       </c>
       <c r="N9">
-        <v>13.008109</v>
+        <v>9.317019</v>
       </c>
       <c r="O9">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="P9">
-        <v>0.2532299986575496</v>
+        <v>0.2088499147095181</v>
       </c>
       <c r="Q9">
-        <v>1.675652568944</v>
+        <v>17.61624891488866</v>
       </c>
       <c r="R9">
-        <v>15.080873120496</v>
+        <v>158.546240233998</v>
       </c>
       <c r="S9">
-        <v>0.09900682455640041</v>
+        <v>0.1888122116196776</v>
       </c>
       <c r="T9">
-        <v>0.09900682455640041</v>
+        <v>0.1888122116196776</v>
       </c>
     </row>
   </sheetData>
